--- a/Formatos/Formato Carga de Alumnos.xlsx
+++ b/Formatos/Formato Carga de Alumnos.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciak3\Desktop\Tesi Indicadores\Tesi Indicadores Fron End\Tesi-Indicadores-FrontEnd\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE28E0E7-62D6-4B2B-95CB-728CB0029415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533FDAE5-7565-40ED-B5B2-A641D44077AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$F$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No.</t>
   </si>
@@ -47,24 +47,12 @@
   <si>
     <t>Grupo</t>
   </si>
-  <si>
-    <t>Formato para la Carga de Alumnos.                                                           (Nota no Modificar los nombres de las columnas)</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>ISC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,13 +69,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,15 +117,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -155,14 +143,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -188,13 +174,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -231,13 +217,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -274,13 +260,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -317,13 +303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -360,13 +346,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -403,13 +389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -446,13 +432,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -489,13 +475,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -532,13 +518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -575,13 +561,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -618,13 +604,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -661,13 +647,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -704,13 +690,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -745,50 +731,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1438274</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>739830</xdr:rowOff>
+      <xdr:rowOff>752475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15">
+        <xdr:cNvPr id="17" name="Imagen 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781A3794-159C-4A0B-8909-21D14BF1B74A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC0298B-9AC2-45D7-902F-D806D6D839D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6848474" y="0"/>
-          <a:ext cx="1076325" cy="739830"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7943850" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1093,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:AMC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -1107,63 +1104,31 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="1017" width="10.5703125" customWidth="1"/>
+    <col min="7" max="1017" width="10.5703125" hidden="1"/>
+    <col min="1018" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" ht="81" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>201224992</v>
-      </c>
-      <c r="E3">
-        <v>1802</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1171,6 +1136,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E2DB502ABF570459D92EAB368475EB9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc33ec95a03d3916ee7c550885e77c05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad" xmlns:ns4="112e49ae-75ca-444f-98be-3b3ec7e22459" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9408b6cd564dfbdec8defa50352aa754" ns3:_="" ns4:_="">
     <xsd:import namespace="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
@@ -1341,15 +1315,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1357,6 +1322,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91726C-1B1F-487D-8645-98B7DB2DCA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1371,14 +1344,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
